--- a/metadata/metagenome_information/R1_Flanking_Metagenomes_Information.xlsx
+++ b/metadata/metagenome_information/R1_Flanking_Metagenomes_Information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcdaniel/Desktop/McMahon-Lab/EBPR-Projects/R1R2/R1PopDynamics/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcdaniel/Desktop/McMahon-Lab/EBPR-Projects/R1R2/R1PopDynamics/metadata/metagenome_information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7957885-9632-694F-8F4E-671CDCBC3A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCF369F-BCBB-2448-B319-9F11F6D06304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{85791C82-046B-7B40-A21C-8BF47DCBCE5D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>P_release</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>end of reactor life/crashed and weird things happened</t>
+  </si>
+  <si>
+    <t>JGI_OIMD</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -183,13 +189,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,11 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040382A5-4FCC-6544-AFDD-5EE0BE0517F5}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,13 +555,14 @@
     <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -562,37 +576,40 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40217</v>
       </c>
@@ -605,39 +622,42 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3">
         <v>55.7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>61.489862935465503</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>817.33333333333201</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>497.33333333333201</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>60.848287112561103</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K16" si="0">(F2-G2)/F2 *100</f>
+      <c r="L2">
+        <f t="shared" ref="L2:L16" si="0">(G2-H2)/G2 *100</f>
         <v>100</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.75</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40374</v>
       </c>
@@ -650,40 +670,43 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
+        <v>3300026282</v>
+      </c>
+      <c r="F3" s="3">
         <v>13.3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>63.23</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.079</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>853.3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>492</v>
       </c>
-      <c r="J3">
-        <f>I3/H3 * 100</f>
+      <c r="K3">
+        <f>J3/I3 * 100</f>
         <v>57.658502285245518</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f t="shared" si="0"/>
         <v>98.293531551478736</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>168</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40421</v>
       </c>
@@ -696,38 +719,41 @@
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3">
         <v>28.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.0238435179897198</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.3536550542547099</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>429.33333333333297</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>397.333333333334</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>92.546583850931796</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>215</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40455</v>
       </c>
@@ -740,40 +766,43 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
+        <v>3300026289</v>
+      </c>
+      <c r="F5" s="3">
         <v>13.9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>56.866999999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>768</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>389</v>
       </c>
-      <c r="J5">
-        <f>I5/H5 * 100</f>
+      <c r="K5">
+        <f>J5/I5 * 100</f>
         <v>50.651041666666664</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>249</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>62.25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40543</v>
       </c>
@@ -786,39 +815,42 @@
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3">
         <v>25.3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>29.0084237578527</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>421.333333333334</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>286.66666666666498</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>68.037974683543695</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>337</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>83.25</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40553</v>
       </c>
@@ -831,40 +863,43 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
+        <v>3300026287</v>
+      </c>
+      <c r="F7" s="3">
         <v>15.3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>43.5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.43</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>564</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>350.66</v>
       </c>
-      <c r="J7">
-        <f>I7/H7 * 100</f>
+      <c r="K7">
+        <f>J7/I7 * 100</f>
         <v>62.173758865248232</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="0"/>
         <v>99.011494252873561</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>347</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>86.75</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>40659</v>
       </c>
@@ -877,39 +912,42 @@
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3">
         <v>22.7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23.8863506567676</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16.2457167332953</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>356.00000000000199</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>333.33333333333201</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>93.632958801497196</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>31.987447698744713</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>453</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>113.25</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>40756</v>
       </c>
@@ -922,39 +960,42 @@
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3">
         <v>26.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>72.108794974300395</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.17989720159908501</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>915.99999999999704</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>629.33333333333201</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>68.704512372634696</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>99.750519750519757</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>550</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>137.5</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>40816</v>
       </c>
@@ -967,39 +1008,42 @@
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3">
         <v>24.4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>23.511564820102802</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6.2514277555682503</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>393.333333333334</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>321.33333333333297</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>81.694915254237102</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>73.411264612114763</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>610</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>153.25</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>40931</v>
       </c>
@@ -1012,40 +1056,43 @@
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
+        <v>3300026288</v>
+      </c>
+      <c r="F11" s="3">
         <v>13.7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>54.99</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1204</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>713</v>
       </c>
-      <c r="J11">
-        <f>I11/H11 * 100</f>
+      <c r="K11">
+        <f>J11/I11 * 100</f>
         <v>59.219269102990033</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>725</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>181.25</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>40942</v>
       </c>
@@ -1058,39 +1105,42 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3">
         <v>32.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>61.240005711022299</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>945.33333333333599</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>375.99999999999699</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>39.774330042312698</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>736</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>184</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>41015</v>
       </c>
@@ -1103,39 +1153,42 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3">
         <v>21.7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>58.616504854368898</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>957.33333333333496</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>633.33333333333496</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>66.155988857938794</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>809</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>201.5</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>41175</v>
       </c>
@@ -1148,39 +1201,42 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8.7699885779554503</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>550.66666666666504</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>404</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>73.365617433414201</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>969</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>241.5</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>41369</v>
       </c>
@@ -1193,39 +1249,42 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3">
         <v>16.03</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>57.742004568817798</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>877.33333333333405</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>619.99999999999704</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>70.668693009118101</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1163</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>285.5</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>41417</v>
       </c>
@@ -1238,38 +1297,42 @@
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16">
+      <c r="E16" s="4">
+        <v>3300026302</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16">
         <v>60.6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>640</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>558.66700000000003</v>
       </c>
-      <c r="J16">
-        <f>I16/H16 * 100</f>
+      <c r="K16">
+        <f>J16/I16 * 100</f>
         <v>87.291718750000001</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="0"/>
         <v>99.17491749174917</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1211</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>302</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>